--- a/Projektnoten.xlsx
+++ b/Projektnoten.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascha.weis\kaesekaestchen\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3D1714-E569-4D89-97EE-EFAC1D5C69DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projekt" sheetId="1" r:id="rId1"/>
@@ -17,8 +18,14 @@
     <sheet name="Gesamtnote" sheetId="3" r:id="rId3"/>
     <sheet name="Notenspiegel" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -27,12 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -113,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -140,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -167,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -194,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -220,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -247,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -274,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -508,7 +515,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -703,7 +710,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1044" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1044" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -746,7 +759,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1042" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1042" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -789,7 +808,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1040" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1040" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -832,7 +857,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1038" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1038" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -875,7 +906,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1036" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1036" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -918,7 +955,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1034" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1034" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -961,7 +1004,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1004,7 +1053,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1047,7 +1102,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1090,7 +1151,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1138,7 +1205,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1491,36 +1564,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="1" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" customWidth="1"/>
-    <col min="10" max="10" width="6.109375" customWidth="1"/>
-    <col min="11" max="11" width="4.44140625" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" customWidth="1"/>
-    <col min="13" max="13" width="4.44140625" customWidth="1"/>
-    <col min="14" max="14" width="8.21875" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" customWidth="1"/>
-    <col min="18" max="18" width="22.44140625" customWidth="1"/>
-    <col min="19" max="19" width="23.77734375" customWidth="1"/>
-    <col min="20" max="1025" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" customWidth="1"/>
+    <col min="19" max="19" width="23.7109375" customWidth="1"/>
+    <col min="20" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1579,7 +1652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1634,7 +1707,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1689,7 +1762,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1698,6 +1771,9 @@
       </c>
       <c r="D4" t="s">
         <v>65</v>
+      </c>
+      <c r="E4">
+        <v>37052</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -1741,7 +1817,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q5" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1751,7 +1827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q6" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1761,7 +1837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1771,7 +1847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q8" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1781,7 +1857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1791,7 +1867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1801,7 +1877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1811,7 +1887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q12" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1821,7 +1897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q13" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1831,7 +1907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q14" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1841,7 +1917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q15" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1851,7 +1927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q16" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1861,7 +1937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q17" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1871,7 +1947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q18" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1881,7 +1957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q19" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1891,7 +1967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q20" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1901,7 +1977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q21" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1911,7 +1987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q22" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1921,7 +1997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q23" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1931,7 +2007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q24" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1941,7 +2017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q25" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1951,7 +2027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q26" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1961,7 +2037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q27" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1971,7 +2047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q28" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1981,7 +2057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q29" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1991,7 +2067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q30" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2001,7 +2077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q31" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2011,7 +2087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q32" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2021,7 +2097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q33" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2031,7 +2107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q34" s="3">
         <f t="shared" ref="Q34:Q65" si="1">SUM(G34:P34)</f>
         <v>0</v>
@@ -2041,7 +2117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q35" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2051,7 +2127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q36" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2061,7 +2137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q37" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2071,7 +2147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q38" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2081,7 +2157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q39" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2091,7 +2167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q40" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2101,7 +2177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q41" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2111,7 +2187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q42" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2121,7 +2197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q43" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2131,7 +2207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q44" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2141,7 +2217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q45" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2151,7 +2227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q46" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2161,7 +2237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q47" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2171,7 +2247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q48" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2181,7 +2257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q49" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2191,7 +2267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q50" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2201,7 +2277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q51" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2211,7 +2287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q52" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2221,7 +2297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q53" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2231,7 +2307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q54" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2241,7 +2317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q55" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2251,7 +2327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q56" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2261,7 +2337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q57" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2271,7 +2347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q58" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2281,7 +2357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q59" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2291,7 +2367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q60" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2301,7 +2377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q61" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2311,7 +2387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q62" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2321,7 +2397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q63" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2331,7 +2407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q64" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2341,7 +2417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q65" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2351,9 +2427,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q66" s="3">
-        <f t="shared" ref="Q66:Q97" si="2">SUM(G66:P66)</f>
+        <f t="shared" ref="Q66:Q80" si="2">SUM(G66:P66)</f>
         <v>0</v>
       </c>
       <c r="S66" s="3">
@@ -2361,7 +2437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q67" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2371,7 +2447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q68" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2381,7 +2457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q69" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2391,7 +2467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q70" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2401,7 +2477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q71" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2411,7 +2487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q72" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2421,7 +2497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q73" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2431,7 +2507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q74" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2441,7 +2517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q75" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2451,7 +2527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q76" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2461,7 +2537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q77" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2471,7 +2547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q78" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2481,7 +2557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q79" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2491,7 +2567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q80" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2510,21 +2586,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="1025" width="10.77734375" customWidth="1"/>
+    <col min="1" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2574,7 +2650,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O2">
         <f t="shared" ref="O2:O33" si="0">SUM(E2:N2)</f>
         <v>0</v>
@@ -2584,7 +2660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2594,7 +2670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2604,7 +2680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2614,7 +2690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2624,7 +2700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2634,7 +2710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2644,7 +2720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2654,7 +2730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2664,7 +2740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2674,7 +2750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2684,7 +2760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2694,7 +2770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2704,7 +2780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2714,7 +2790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2724,7 +2800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2734,7 +2810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2744,7 +2820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2754,7 +2830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2764,7 +2840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2774,7 +2850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2784,7 +2860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2794,7 +2870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2804,7 +2880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2814,7 +2890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2824,7 +2900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2834,7 +2910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O28">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2844,7 +2920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O29">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2854,7 +2930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2864,7 +2940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O31">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2874,7 +2950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O32">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2884,7 +2960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O33">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2894,7 +2970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O34">
         <f t="shared" ref="O34:O65" si="1">SUM(E34:N34)</f>
         <v>0</v>
@@ -2904,7 +2980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2914,7 +2990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2924,7 +3000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O37">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2934,7 +3010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O38">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2944,7 +3020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2954,7 +3030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O40">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2964,7 +3040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O41">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2974,7 +3050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2984,7 +3060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O43">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2994,7 +3070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3004,7 +3080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O45">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3014,7 +3090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O46">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3024,7 +3100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O47">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3034,7 +3110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3044,7 +3120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O49">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3054,7 +3130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O50">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3064,7 +3140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O51">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3074,7 +3150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O52">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3084,7 +3160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O53">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3094,7 +3170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O54">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3104,7 +3180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O55">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3114,7 +3190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O56">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3124,7 +3200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O57">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3134,7 +3210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O58">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3144,7 +3220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O59">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3154,7 +3230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O60">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3164,7 +3240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O61">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3174,7 +3250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O62">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3184,7 +3260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O63">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3194,7 +3270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O64">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3204,7 +3280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O65">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3214,9 +3290,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O66">
-        <f t="shared" ref="O66:O97" si="2">SUM(E66:N66)</f>
+        <f t="shared" ref="O66:O79" si="2">SUM(E66:N66)</f>
         <v>0</v>
       </c>
       <c r="P66" s="4">
@@ -3224,7 +3300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O67">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3234,7 +3310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O68">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3244,7 +3320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O69">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3254,7 +3330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O70">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3264,7 +3340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O71">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3274,7 +3350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O72">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3284,7 +3360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O73">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3294,7 +3370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O74">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3304,7 +3380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O75">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3314,7 +3390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O76">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3324,7 +3400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O77">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3334,7 +3410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O78">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3344,7 +3420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O79">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3361,21 +3437,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="1025" width="10.77734375" customWidth="1"/>
+    <col min="1" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3398,475 +3474,475 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G2">
         <f t="shared" ref="G2:G33" si="0">(E2+(F2*2))/3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34">
         <f t="shared" ref="G34:G65" si="1">(E34+(F34*2))/3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G66">
-        <f t="shared" ref="G66:G97" si="2">(E66+(F66*2))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G66:G80" si="2">(E66+(F66*2))/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G70">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G79">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G80">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3880,19 +3956,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
@@ -3910,7 +3986,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3922,7 +3998,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
@@ -3948,7 +4024,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -3974,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
@@ -4000,7 +4076,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
@@ -4026,7 +4102,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>42</v>
       </c>
@@ -4052,7 +4128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>43</v>
       </c>
@@ -4078,7 +4154,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
@@ -4104,7 +4180,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>46</v>
       </c>
@@ -4130,7 +4206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>47</v>
       </c>
@@ -4156,7 +4232,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
@@ -4182,7 +4258,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>50</v>
       </c>
@@ -4208,7 +4284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>52</v>
       </c>
@@ -4234,7 +4310,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>54</v>
       </c>
@@ -4260,7 +4336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -4272,7 +4348,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>100</v>
       </c>
@@ -4292,7 +4368,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>99</v>
       </c>
@@ -4312,7 +4388,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>98</v>
       </c>
@@ -4332,7 +4408,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>97</v>
       </c>
@@ -4352,7 +4428,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>96</v>
       </c>
@@ -4372,7 +4448,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>95</v>
       </c>
@@ -4392,7 +4468,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>94</v>
       </c>
@@ -4412,7 +4488,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>93</v>
       </c>
@@ -4432,7 +4508,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>92</v>
       </c>
@@ -4452,7 +4528,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>91</v>
       </c>
@@ -4472,7 +4548,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>90</v>
       </c>
@@ -4492,7 +4568,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>89</v>
       </c>
@@ -4512,7 +4588,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>88</v>
       </c>
@@ -4532,7 +4608,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>87</v>
       </c>
@@ -4552,7 +4628,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>86</v>
       </c>
@@ -4572,7 +4648,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>85</v>
       </c>
@@ -4592,7 +4668,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>84</v>
       </c>
@@ -4612,7 +4688,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>83</v>
       </c>
@@ -4632,7 +4708,7 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>82</v>
       </c>
@@ -4652,7 +4728,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>81</v>
       </c>
@@ -4672,7 +4748,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>80</v>
       </c>
@@ -4692,7 +4768,7 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>79</v>
       </c>
@@ -4712,7 +4788,7 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>78</v>
       </c>
@@ -4732,7 +4808,7 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>77</v>
       </c>
@@ -4752,7 +4828,7 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>76</v>
       </c>
@@ -4772,7 +4848,7 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>75</v>
       </c>
@@ -4792,7 +4868,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>74</v>
       </c>
@@ -4812,7 +4888,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>73</v>
       </c>
@@ -4832,7 +4908,7 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>72</v>
       </c>
@@ -4852,7 +4928,7 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>71</v>
       </c>
@@ -4872,7 +4948,7 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>70</v>
       </c>
@@ -4892,7 +4968,7 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>69</v>
       </c>
@@ -4908,7 +4984,7 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>68</v>
       </c>
@@ -4924,7 +5000,7 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>67</v>
       </c>
@@ -4940,7 +5016,7 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>66</v>
       </c>
@@ -4956,7 +5032,7 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>65</v>
       </c>
@@ -4972,7 +5048,7 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>64</v>
       </c>
@@ -4988,7 +5064,7 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>63</v>
       </c>
@@ -5004,7 +5080,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>62</v>
       </c>
@@ -5020,7 +5096,7 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>61</v>
       </c>
@@ -5036,7 +5112,7 @@
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>60</v>
       </c>
@@ -5052,7 +5128,7 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>59</v>
       </c>
@@ -5068,7 +5144,7 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -5084,7 +5160,7 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>57</v>
       </c>
@@ -5100,7 +5176,7 @@
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>56</v>
       </c>
@@ -5116,7 +5192,7 @@
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>55</v>
       </c>
@@ -5132,7 +5208,7 @@
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>54</v>
       </c>
@@ -5148,7 +5224,7 @@
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>53</v>
       </c>
@@ -5164,7 +5240,7 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>52</v>
       </c>
@@ -5180,7 +5256,7 @@
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>51</v>
       </c>
@@ -5196,7 +5272,7 @@
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>50</v>
       </c>
@@ -5212,7 +5288,7 @@
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>49</v>
       </c>
@@ -5228,7 +5304,7 @@
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>48</v>
       </c>
@@ -5244,7 +5320,7 @@
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>47</v>
       </c>
@@ -5260,7 +5336,7 @@
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>46</v>
       </c>
@@ -5276,7 +5352,7 @@
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>45</v>
       </c>
@@ -5292,7 +5368,7 @@
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>44</v>
       </c>
@@ -5308,7 +5384,7 @@
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>43</v>
       </c>
@@ -5324,7 +5400,7 @@
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>42</v>
       </c>
@@ -5340,7 +5416,7 @@
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>41</v>
       </c>
@@ -5356,7 +5432,7 @@
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>40</v>
       </c>
@@ -5372,7 +5448,7 @@
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>39</v>
       </c>
@@ -5388,7 +5464,7 @@
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>38</v>
       </c>
@@ -5404,7 +5480,7 @@
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>37</v>
       </c>
@@ -5420,7 +5496,7 @@
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>36</v>
       </c>
@@ -5436,7 +5512,7 @@
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>35</v>
       </c>
@@ -5452,7 +5528,7 @@
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>34</v>
       </c>
@@ -5468,7 +5544,7 @@
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>33</v>
       </c>
@@ -5484,7 +5560,7 @@
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>32</v>
       </c>
@@ -5500,7 +5576,7 @@
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>31</v>
       </c>
@@ -5516,7 +5592,7 @@
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>30</v>
       </c>
@@ -5532,7 +5608,7 @@
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>29</v>
       </c>
@@ -5548,7 +5624,7 @@
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>28</v>
       </c>
@@ -5564,7 +5640,7 @@
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>27</v>
       </c>
@@ -5580,7 +5656,7 @@
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>26</v>
       </c>
@@ -5596,7 +5672,7 @@
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>25</v>
       </c>
@@ -5612,7 +5688,7 @@
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>24</v>
       </c>
@@ -5628,7 +5704,7 @@
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>23</v>
       </c>
@@ -5644,7 +5720,7 @@
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>22</v>
       </c>
@@ -5660,7 +5736,7 @@
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>21</v>
       </c>
@@ -5676,7 +5752,7 @@
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>20</v>
       </c>
@@ -5692,7 +5768,7 @@
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>19</v>
       </c>
@@ -5708,7 +5784,7 @@
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>18</v>
       </c>
@@ -5724,7 +5800,7 @@
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>17</v>
       </c>
@@ -5740,7 +5816,7 @@
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>16</v>
       </c>
@@ -5756,7 +5832,7 @@
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>15</v>
       </c>
@@ -5772,7 +5848,7 @@
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>14</v>
       </c>
@@ -5788,7 +5864,7 @@
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>13</v>
       </c>
@@ -5804,7 +5880,7 @@
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>12</v>
       </c>
@@ -5820,7 +5896,7 @@
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>11</v>
       </c>
@@ -5836,7 +5912,7 @@
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>10</v>
       </c>
@@ -5852,7 +5928,7 @@
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>9</v>
       </c>
@@ -5868,7 +5944,7 @@
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>8</v>
       </c>
@@ -5884,7 +5960,7 @@
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>7</v>
       </c>
@@ -5900,7 +5976,7 @@
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>6</v>
       </c>
@@ -5916,7 +5992,7 @@
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>5</v>
       </c>
@@ -5932,7 +6008,7 @@
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>4</v>
       </c>
@@ -5948,7 +6024,7 @@
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>3</v>
       </c>
@@ -5964,7 +6040,7 @@
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>2</v>
       </c>
@@ -5980,7 +6056,7 @@
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>1</v>
       </c>
@@ -5996,7 +6072,7 @@
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>0</v>
       </c>
